--- a/Results/real_clocks/Test_gemma-3-12b-it_Train_Results.xlsx
+++ b/Results/real_clocks/Test_gemma-3-12b-it_Train_Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1934 +453,2227 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01:09</t>
+          <t>01:08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:15**.
-Here's how I determined that:
-*   The hour hand is pointing just past the 1.
-*   The minute hand is pointing at the 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:18:12**.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>01:18:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01:32</t>
+          <t>01:09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:57**. 
-Here's how I determined that:
-*   **Hour hand:** Points just past the number 1.
-*   **Minute hand:** Points at the number 9, which represents 45 minutes past the hour. Since there are 60 minutes in an hour, 45 minutes past the hour is 57 minutes.</t>
+          <t>The time shown on the clock is **01:15:12**.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1:57</t>
+          <t>01:15:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01:49</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **10:12**.</t>
+          <t>The time shown on the clock is **01:18:32**.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>01:18:32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01:49</t>
+          <t>01:18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at 17.</t>
+          <t>The time shown on the clock is **05:15:32**.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>05:15:32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>01:25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:10**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the number 10.
-*   **Minute Hand:** The minute hand is pointing directly at the number 2, which represents 10 minutes past the hour (since each number on the clock represents 5 minutes).</t>
+          <t>The time shown on the clock is **05:05:12**.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>05:05:12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:32</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time **1:15**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the number 1.
-*   **Minute Hand:** The minute hand is pointing at the number 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:15:30**.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>01:15:30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02:07</t>
+          <t>01:49</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:16**.</t>
+          <t>The time shown on the clock is **02:18:22**.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>02:18:22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02:13</t>
+          <t>01:49</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **2:03**.</t>
+          <t>The time shown on the clock is **10:13:16**.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2:03</t>
+          <t>10:13:16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02:14</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Based on the image, the time shown on the clock is approximately **10:08**.</t>
+          <t>The time shown on the clock is **10:11:33**.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>10:11:33</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02:25</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **2:05**.
-Here's how we can tell:
-*   **Hour hand:** The hour hand is pointing just past the number 2.
-*   **Minute hand:** The minute hand is pointing at the number 1, which represents 5 minutes past the hour (1 x 5 = 5).</t>
+          <t>The time shown on the clock is **11:32:23**.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2:05</t>
+          <t>11:32:23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02:26</t>
+          <t>02:07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **1:50**.
-Here's how we can tell:
-*   **Hour hand:** Points just past the 1.
-*   **Minute hand:** Points at the 10, which represents 50 minutes past the hour.</t>
+          <t>The time shown on the clock is **08:17:52**.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1:50</t>
+          <t>08:17:52</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02:27</t>
+          <t>02:13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at 12, which means it is 17 minutes past the hour.</t>
+          <t>The time shown on the clock is **02:15:22**.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>02:15:22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02:39</t>
+          <t>02:14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:16**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour. However, the small seconds dial shows that it is 16 seconds past the hour.
-Let me know if you'd like me to analyze any other details of the clock!</t>
+          <t>The time shown on the clock is **05:50:30**.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>05:50:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02:41</t>
+          <t>02:22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour.
-*   **Seconds Hand:** The seconds hand is pointing at the 12.</t>
+          <t>The time shown on the clock is **02:15:23**.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>02:15:23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>02:25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:15**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the number 1.
-*   **Minute Hand:** The minute hand is pointing at the number 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:50:15**.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>01:50:15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03:02</t>
+          <t>02:26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **2:05**.
-Here's how we can tell:
-*   The hour hand is pointing just past the number 2.
-*   The minute hand is pointing at the number 1, which represents 5 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:15:12**.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2:05</t>
+          <t>01:15:12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03:09</t>
+          <t>02:27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **2:27**. 
-Here's how I determined that:
-*   The hour hand is slightly past the "2".
-*   The minute hand is pointing at the "7", which represents 35 minutes past the hour. However, the image shows the minute hand slightly before the "7", so it's closer to 27 minutes.</t>
+          <t>The time shown on the clock is **03:42:14**.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2:27</t>
+          <t>03:42:14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03:31</t>
+          <t>02:39</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **2:06**.</t>
+          <t>The time shown on the clock is **05:17:50**.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2:06</t>
+          <t>05:17:50</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03:32</t>
+          <t>02:40</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:12**.</t>
+          <t>The time shown on the clock is **02:18:22**.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>02:18:22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03:36</t>
+          <t>02:41</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:13**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the "X" which represents 10.
-*   **Minute Hand:** The minute hand is pointing at the "3" which represents 15 minutes past the hour. However, the seconds hand is pointing at the 12, so the time is 10:13.</t>
+          <t>The time shown on the clock is **05:17:23**.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>05:17:23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03:47</t>
+          <t>02:51</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:42**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 6, which represents 30 minutes past the hour. However, the second hand is pointing at the 12, which means it is 42 seconds past the hour.
-Let me know if you have another image you'd like me to analyze!</t>
+          <t>The time shown on the clock is **04:25:12**.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>04:25:12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03:47</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.</t>
+          <t>The time shown on the clock is **01:16:22**.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>01:16:22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03:58</t>
+          <t>03:02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **11:05**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 11.
-*   **Minute Hand:** The minute hand is pointing at the 1, which represents 5 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:15:12**.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>01:15:12</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>03:09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **1:40**.
-Here's how we can tell:
-*   The hour hand is pointing just past the 1.
-*   The minute hand is pointing at the 8, which represents 40 minutes past the hour (8 x 5 = 40).</t>
+          <t>The time shown on the clock is **01:17:12**.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1:40</t>
+          <t>01:17:12</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04:26</t>
+          <t>03:16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the "X" which represents 10.
-*   **Minute Hand:** The minute hand is pointing at the "4" which represents 20 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04:32</t>
+          <t>03:29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at 12, which means it is 17 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:13:32**.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>05:13:32</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04:34</t>
+          <t>03:31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:15**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the number 10.
-*   **Minute Hand:** The minute hand is pointing at the number 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:03:12**.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>05:03:12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05:01</t>
+          <t>03:32</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **11:35**.</t>
+          <t>The time shown on the clock is **08:17:32**.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>08:17:32</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05:02</t>
+          <t>03:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.</t>
+          <t>The time shown on the clock is **08:17:30**.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>08:17:30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>03:47</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:28**.</t>
+          <t>The time shown on the clock is **05:17:50**.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>05:17:50</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05:20</t>
+          <t>03:47</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **4:06**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 4.
-*   **Minute Hand:** The minute hand is pointing at the 6, which represents 30 minutes past the hour.</t>
+          <t>The time shown on the clock is **08:18:30**.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4:06</t>
+          <t>08:18:30</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>03:58</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **5:05**.</t>
+          <t>The time shown on the clock is **09:12:15**.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5:05</t>
+          <t>09:12:15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour. However, the second hand is pointing at 12, which means it is 14 seconds past the hour.</t>
+          <t>The time shown on the clock is **01:11:23**.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>01:11:23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>04:16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:16**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour. However, the second hand is pointing at the 12, which means it is 16 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:17:50**.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>05:17:50</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05:53</t>
+          <t>04:26</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:13**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 13 minute mark.</t>
+          <t>The time shown on the clock is **05:17:52**.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>05:17:52</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>04:32</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **1:28**. 
-Here's how we can tell:
-*   The hour hand is slightly past the 1.
-*   The minute hand is pointing at the 4, which represents 20 minutes past the hour. Since there are 4 increments between the 4 and 12, that means it is 28 minutes past the hour.</t>
+          <t>The time shown on the clock is **02:16:23**.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>02:16:23</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06:01</t>
+          <t>04:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:28**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 1.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour. Since there are 4 ticks between the minute hand and the 12, that means it's 28 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06:05</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:22**.</t>
+          <t>The time shown on the clock is **11:12:15**.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1:22</t>
+          <t>11:12:15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06:12</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **2:45**.</t>
+          <t>The time shown on the clock is **08:13:30**.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2:45</t>
+          <t>08:13:30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06:12</t>
+          <t>05:02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **11:23**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 11.
-*   **Minute Hand:** The minute hand is pointing at the 7, which represents 35 minutes past the hour.</t>
+          <t>The time shown on the clock is **08:18:12**.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>08:18:12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06:35</t>
+          <t>05:05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:15**.
-Here's how I determined that:
-*   The hour hand is pointing just past the number 10.
-*   The minute hand is pointing at the number 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:16:32**.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>01:16:32</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06:36</t>
+          <t>05:20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **7:25**. 
-Here's how I determined that:
-*   **Hour hand:** The hour hand is pointing just past the 7.
-*   **Minute hand:** The minute hand is pointing at the 5, which represents 25 minutes past the hour.</t>
+          <t>The time shown on the clock is **03:17:10**.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7:25</t>
+          <t>03:17:10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06:49</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:12**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 2, which represents 10 minutes past the hour (2 x 5 = 10).</t>
+          <t>The time shown on the clock is **04:25:15**.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>04:25:15</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **7:00**. 
-Here's how I determined that:
-*   The hour hand is pointing directly at the 7.
-*   The minute hand is pointing directly at the 12.</t>
+          <t>The time shown on the clock is **08:18:12**.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7:00</t>
+          <t>08:18:12</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the "X" (representing 10).
-*   **Minute Hand:** The minute hand is pointing at the "3" on the clock face, which represents 15 minutes past the hour. However, the second hand is pointing at the 12, so it is 17 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:18:23**.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>05:18:23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>07:09</t>
+          <t>05:53</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour.
-*   **Seconds Hand:** The seconds hand is pointing at the 12, which represents 0 seconds.</t>
+          <t>The time shown on the clock is **11:33:12**.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>11:33:12</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:13**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the "10" mark.
-*   **Minute Hand:** The minute hand is pointing at the "13" minute mark.</t>
+          <t>The time shown on the clock is **04:11:22**.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>04:11:22</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:08**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour.
-*   **Second Hand:** The second hand is pointing at the 8.</t>
+          <t>The time shown on the clock is **05:18:22**.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>05:18:22</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **8:02**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 8.
-*   **Minute Hand:** The minute hand is pointing at the 1, which represents 5 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:15:12**.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8:02</t>
+          <t>01:15:12</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>07:46</t>
+          <t>06:12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.</t>
+          <t>The time shown on the clock is **05:11:33**.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>05:11:33</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>07:52</t>
+          <t>06:12</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Based on the image, the time shown on the pocket watch is approximately **10:13**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the "10" mark.
-*   **Minute Hand:** The minute hand is pointing at the "13" minute mark.</t>
+          <t>The time shown on the clock is **02:15:22**.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>02:15:22</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the "X" (which represents 10).
-*   **Minute Hand:** The minute hand is pointing at the "4" (which represents 20 minutes past the hour).</t>
+          <t>The time shown on the clock is **11:58:12**.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>11:58:12</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>06:35</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:12**.</t>
+          <t>The time shown on the clock is **05:15:12**.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>05:15:12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>08:18</t>
+          <t>06:36</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **3:15**. 
-Here's how I determined that:
-*   The hour hand is pointing just past the 3.
-*   The minute hand is pointing directly at the 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **03:35:17**.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3:15</t>
+          <t>03:35:17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>06:49</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:13**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at the 13, so the time is 10:13.</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour.
-*   **Second Hand:** The second hand is pointing at the 12, which represents 0 seconds.
-Therefore, the time is approximately 10:20.</t>
+          <t>The time shown on the clock is **07:12:22**.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>07:12:22</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Based on the image, the time shown on the clock is approximately **10:14**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the "10" mark.
-*   **Minute Hand:** The minute hand is pointing at the "28" minute mark.</t>
+          <t>The time shown on the clock is **01:11:11**.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>01:11:11</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the "10".
-*   **Minute Hand:** The minute hand is pointing at the "4", which represents 20 minutes past the hour.
-*   **Second Hand:** The second hand is pointing at the "12", which represents 0 seconds.</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:09</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **11:55**.
-Here's how I determined that:
-*   The hour hand is pointing just past the 11.
-*   The minute hand is pointing at the 11, which represents 55 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:17:52**.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>05:17:52</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>09:05</t>
+          <t>07:12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the image shows the time as 17 minutes past the hour.</t>
+          <t>The time shown on the clock is **08:18:20**.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>08:18:20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **11:23**.</t>
+          <t>The time shown on the clock is **08:18:22**.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>08:18:22</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at the 17.</t>
+          <t>The time shown on the clock is **01:11:58**.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>01:11:58</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>09:13</t>
+          <t>07:27</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:15**.
-Here's how I determined that:
-*   **Hour hand:** The hour hand is pointing just past the number 1.
-*   **Minute hand:** The minute hand is pointing at the number 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **11:57:10**.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1:15</t>
+          <t>11:57:10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>09:19</t>
+          <t>07:46</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.</t>
+          <t>The time shown on the clock is **08:18:22**.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>08:18:22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>07:52</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **4:08**.</t>
+          <t>The time shown on the clock is **05:18:22**.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4:08</t>
+          <t>05:18:22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>09:22</t>
+          <t>07:55</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:51**.</t>
+          <t>The time shown on the clock is **09:17:30**.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1:51</t>
+          <t>09:17:30</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at the 17.</t>
+          <t>The time shown on the clock is **03:01:50**.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>03:01:50</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.</t>
+          <t>The time shown on the clock is **11:58:22**.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>11:58:22</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Based on the image, the time shown on the clock is approximately **10:15**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the "10" mark.
-*   **Minute Hand:** The minute hand is pointing at the "3" which represents 15 minutes past the hour.
-Let me know if you'd like me to analyze any other details of the clock!</t>
+          <t>The time shown on the clock is **03:13:32**.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>03:13:32</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **10:10**.</t>
+          <t>The time shown on the clock is **09:15:33**.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>09:15:33</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **1:11**.</t>
+          <t>The time shown on the clock is **05:18:22**.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1:11</t>
+          <t>05:18:22</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour.
-*   **Seconds Hand:** The seconds hand is pointing at 12, which represents 00 seconds.</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the clock is a bit worn, so it's difficult to be precise.</t>
+          <t>The time shown on the clock is **08:17:30**.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>08:17:30</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:16**.</t>
+          <t>The time shown on the clock is **08:58:30**.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>08:58:30</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>08:53</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **10:12**.</t>
+          <t>The time shown on the clock is **08:17:33**.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>08:17:33</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **4:16**.</t>
+          <t>The time shown on the clock is **11:12:11**.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4:16</t>
+          <t>11:12:11</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>09:05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:13**. 
-Here's how I determined that:
-*   The hour hand is slightly past the 10.
-*   The minute hand is pointing at the 3, which represents 15 minutes past the hour.
-*   The seconds hand is pointing at the 13.</t>
+          <t>The time shown on the clock is **09:12:23**.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>09:12:23</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>09:06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour.
-*   **Seconds Hand:** The seconds hand is pointing at the 12.</t>
+          <t>The time shown on the clock is **01:17:53**.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>01:17:53</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **7:23**.</t>
+          <t>The time shown on the clock is **08:18:50**.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7:23</t>
+          <t>08:18:50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **2:27**.</t>
+          <t>The time shown on the clock is **05:16:23**.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2:27</t>
+          <t>05:16:23</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>09:13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **4:23**. 
-Here's how I determined that:
-*   **Hour hand:** The hour hand is slightly past the 4.
-*   **Minute hand:** The minute hand is pointing at the 7, which represents 35 minutes past the hour. However, the small hand between the hour and minute hand indicates that it is 23 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:15:12**.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4:23</t>
+          <t>01:15:12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>09:19</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.</t>
+          <t>The time shown on the clock is **01:15:30**.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>01:15:30</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Based on the image, the time shown on the clock is **12:15**. 
-Here's how I determined that:
-*   The hour hand is pointing directly at the 12.
-*   The minute hand is pointing directly at the 3, which represents 15 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:50:12**.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>01:50:12</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>09:22</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour.
-*   **Second Hand:** The second hand is pointing at the 7, which represents 35 seconds past the minute.</t>
+          <t>The time shown on the clock is **03:13:32**.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>03:13:32</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **12:13**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 12.
-*   **Minute Hand:** The minute hand is pointing at the 13-minute mark.</t>
+          <t>The time shown on the clock is **08:18:12**.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>08:18:12</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **12:00** (or midnight).</t>
+          <t>The time shown on the clock is **02:53:23**.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>02:53:23</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **12:05**.
-Here's how I determined that:
-*   The hour hand is pointing directly at the XII (12).
-*   The minute hand is pointing at the I (5).</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at 12, which means it is 17 minutes past the hour.
-Let me know if you'd like me to analyze another image!</t>
+          <t>The time shown on the clock is **08:17:50**.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>08:17:50</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **11:23**.</t>
+          <t>The time shown on the clock is **10:18:15**.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:18:15</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **1:01**. 
-Here's how we can tell:
-*   The hour hand is pointing just past the number 1.
-*   The minute hand is pointing at the number 1.</t>
+          <t>The time shown on the clock is **11:10:30**.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1:01</t>
+          <t>11:10:30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.</t>
+          <t>The time shown on the clock is **01:17:58**.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>01:17:58</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **12:17**.
-Here's how I determined that:
-*   **Hour hand:** The hour hand is pointing just past the 12.
-*   **Minute hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. Since there are two ticks between the minute hand and the 12, it is 17 minutes past the hour.</t>
+          <t>The time shown on the clock is **08:13:12**.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>08:13:12</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Based on the image, the time shown on the clock is approximately **2:52**.</t>
+          <t>The time shown on the clock is **11:58:23**.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2:52</t>
+          <t>11:58:23</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>12:27</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The clock in the image shows the time as **6:05**.
-Here's how we can tell:
-*   **Hour hand:** The hour hand is pointing just past the 6.
-*   **Minute hand:** The minute hand is pointing at the 1, which represents 5 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:18:12**.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6:05</t>
+          <t>05:18:12</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:14**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour. However, the second hand is pointing at the 24, which means it is 14 minutes past the hour.</t>
+          <t>The time shown on the clock is **05:17:12**.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>05:17:12</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:17**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing just past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 3, which represents 15 minutes past the hour. However, the second hand is pointing at 17.
-Let me know if you'd like me to analyze another image!</t>
+          <t>The time shown on the clock is **08:13:15**.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>08:13:15</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:23**. 
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 4, which represents 20 minutes past the hour.
-*   **Seconds Hand:** The seconds hand is pointing at the 12, which represents 0 seconds.</t>
+          <t>The time shown on the clock is **11:38:03**.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>11:38:03</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time as **10:18**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is slightly past the 10.
-*   **Minute Hand:** The minute hand is pointing at the 6, which represents 30 minutes past the hour. However, the second hand is pointing at the 12, which means it is 18 minutes past the hour.</t>
+          <t>The time shown on the clock is **01:13:10**.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>01:13:10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Based on the image, the clock shows the time **12:30**.
-Here's how I determined that:
-*   **Hour Hand:** The hour hand is pointing directly at the 12.
-*   **Minute Hand:** The minute hand is pointing directly at the 6, which represents 30 minutes past the hour.</t>
+          <t>The time shown on the clock is **11:32:20**.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:32:20</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **01:50:12**.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:05:16**.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>11:05:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **08:17:11**.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>08:17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:18:12**.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>05:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **08:58:32**.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>08:58:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:16:50**.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>05:16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:33:12**.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>11:33:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **01:15:30**.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>01:15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **01:15:10**.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>01:15:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:11:32**.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>05:11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:32:23**.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>11:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:17:22**.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>05:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:15:00**.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>05:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **08:18:12**.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>08:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **08:13:12**.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>08:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **12:00:01**.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>12:00:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **01:17:12**.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>01:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **08:13:32**.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>08:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **08:17:22**.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>08:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:10:22**.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>11:10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:58:12**.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>11:58:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:17:12**.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>05:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **09:17:12**.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>09:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:11:23**.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>05:11:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **05:18:12**.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>05:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **08:13:30**.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>08:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:50:20**.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>11:50:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:23:22**.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>11:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:11:33**.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>11:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **11:16:23**.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>11:16:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>12:59</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>The clock in the image shows the time as **1:00** (one o'clock).</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>1:00</t>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>The time shown on the clock is **01:11:12**.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>01:11:12</t>
         </is>
       </c>
     </row>
